--- a/基本設計書_アカウント更新.xlsx
+++ b/基本設計書_アカウント更新.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F0807E1-AA0E-40A5-8837-ECBECEEDD939}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24722BC2-79A2-494C-8A31-DB73D955FC34}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="774" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図" sheetId="13" r:id="rId2"/>
-    <sheet name="画面レイアウト_マイページ画面" sheetId="29" r:id="rId3"/>
+    <sheet name="画面レイアウト_マイページ画面" sheetId="30" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト_マイページ画面!$A$1:$AG$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
   </definedNames>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -205,6 +206,13 @@
     <t>アカウント一覧</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>○○が更新されました。</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -474,7 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -615,6 +623,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1719,7 +1729,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>マイページ画面</a:t>
+            <a:t>マイページ更新画面</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1809,7 +1819,7 @@
         <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006CE764-1806-4E14-9A09-7779538B66B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BBA3A8-CB60-433D-8976-793663C07588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2190,7 @@
         <xdr:cNvPr id="3" name="フローチャート: 結合子 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C596F5-C4ED-4C13-BF61-25956E700AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4436BF7-CA11-4DEC-B9C7-35EE497D6B59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2253,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F68A06-B1E1-4D97-8975-5A2C02CBD089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF06F8A4-B07C-4FBB-A03E-67F19476BF63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2320,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E408254-855A-4F8F-878E-5AE965C5A279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7DE68F-AD51-4817-95A0-BE00682318EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2387,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8362A2-047D-48BF-A076-27A577EE12CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B544D734-50EC-4C34-9369-55AB105175CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2454,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F3600F-C8AA-45B4-B332-10763A1B5FD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E0494D-81A6-4468-83B0-4BBEF2CF1F7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2521,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E29AB0F-332B-4C64-9E20-B70BEB285EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FE943C-0E2E-4AFA-949C-3A9AE0131D33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2592,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C408702-03E3-46AD-88D8-853DFA4FEBA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2146B00F-34E1-44A7-8BAA-592B9838918A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2659,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067DE440-2242-4240-93EC-02A4B3C91A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECF6971-CB93-435D-AAE0-EE9394030772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2726,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0AB765-47FD-4E71-AD06-ADBD51A17888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BA0A42-7F99-4995-9847-D2490CE81387}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2793,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8EDB1D-4841-4F7D-B4E2-24730AC799F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E4EC0C-2B99-4EB8-B6FC-B309A5CECBA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2860,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6818BEA-CC2E-4DD4-9FA1-B8CF1B56B406}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC5411A-932F-4209-B8E1-8D361B95C77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2927,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7090AD-13BE-49EA-8A9B-0F9E31022AF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3745315-AD55-4B6B-A210-78FE8D760547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2994,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492D45B3-7F1F-487B-80E7-848FE3D77A9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82A156F-B5D5-49C9-A133-5FEEFC0FD37C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,6 +3038,77 @@
         <a:lstStyle/>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7647A0AD-7A91-4C5A-BBC7-EF1A0550A82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3416300" y="9569450"/>
+          <a:ext cx="1092200" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページへ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5052,7 +5133,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6718,11 +6799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C577B-A7C3-4139-A5D6-91226F287E0C}">
-  <dimension ref="A1:AG15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3C36C4-1CEF-46DD-A2EA-C3DB810EA626}">
+  <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X60" sqref="X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -7195,6 +7276,92 @@
       <c r="X15" s="54"/>
       <c r="Y15" s="54"/>
     </row>
+    <row r="48" spans="1:33">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="42"/>
+    </row>
+    <row r="49" spans="1:33" ht="14">
+      <c r="A49" s="43"/>
+      <c r="B49" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG49" s="45"/>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50" s="43"/>
+      <c r="AG50" s="45"/>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="48"/>
+    </row>
+    <row r="54" spans="1:33" ht="21">
+      <c r="L54" s="85" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="Z10:AE11"/>
@@ -7212,6 +7379,9 @@
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="47" max="32" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>